--- a/teaching/traditional_assets/database/data/panama/panama_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/panama/panama_financial_svcs_non_bank_insurance.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0232</v>
+        <v>-0.0795</v>
       </c>
       <c r="E2">
-        <v>-0.0221</v>
+        <v>-0.09039999999999999</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,103 +603,97 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.00445766542167911</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>-0.00445766542167911</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>84.7</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="L2">
-        <v>0.6606864274570984</v>
+        <v>0.6424632352941178</v>
       </c>
       <c r="M2">
-        <v>60.68</v>
+        <v>49.8</v>
       </c>
       <c r="N2">
-        <v>0.07159882005899705</v>
+        <v>0.07929936305732484</v>
       </c>
       <c r="O2">
-        <v>0.7164108618654073</v>
+        <v>0.7124463519313303</v>
       </c>
       <c r="P2">
-        <v>59.6</v>
+        <v>49.8</v>
       </c>
       <c r="Q2">
-        <v>0.07032448377581121</v>
+        <v>0.07929936305732484</v>
       </c>
       <c r="R2">
-        <v>0.7036599763872491</v>
+        <v>0.7124463519313303</v>
       </c>
       <c r="S2">
-        <v>1.079999999999998</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.01779828609096899</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>963.4</v>
+        <v>1357.3</v>
       </c>
       <c r="V2">
-        <v>1.136755162241888</v>
+        <v>2.161305732484077</v>
       </c>
       <c r="W2">
-        <v>0.08564206268958545</v>
+        <v>0.06926964621940343</v>
       </c>
       <c r="X2">
-        <v>0.05362410503254372</v>
+        <v>0.04553149513255872</v>
       </c>
       <c r="Y2">
-        <v>0.03201795765704173</v>
+        <v>0.02373815108684471</v>
       </c>
       <c r="Z2">
-        <v>0.04323547936327729</v>
+        <v>0.03969064643221946</v>
       </c>
       <c r="AA2">
-        <v>-0.0001927293013474019</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04028599202144272</v>
+        <v>0.03385338033707589</v>
       </c>
       <c r="AC2">
-        <v>-0.04047872132279012</v>
+        <v>-0.03385338033707589</v>
       </c>
       <c r="AD2">
-        <v>2695.5</v>
+        <v>2110.9</v>
       </c>
       <c r="AE2">
-        <v>13.45736353529631</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>2708.957363535296</v>
+        <v>2110.9</v>
       </c>
       <c r="AG2">
-        <v>1745.557363535296</v>
+        <v>753.6000000000001</v>
       </c>
       <c r="AH2">
-        <v>0.7617010655914225</v>
+        <v>0.7707108693271021</v>
       </c>
       <c r="AI2">
-        <v>0.7285948275309818</v>
+        <v>0.672989861633616</v>
       </c>
       <c r="AJ2">
-        <v>0.6731657340412461</v>
+        <v>0.5454545454545455</v>
       </c>
       <c r="AK2">
-        <v>0.6336749487039897</v>
+        <v>0.4235373461473614</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>1271.462264150943</v>
-      </c>
-      <c r="AP2">
-        <v>823.3761148751397</v>
       </c>
     </row>
     <row r="3">
@@ -719,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0232</v>
+        <v>-0.0795</v>
       </c>
       <c r="E3">
-        <v>-0.0221</v>
+        <v>-0.09039999999999999</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,103 +725,97 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-0.00445766542167911</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-0.00445766542167911</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>84.7</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="L3">
-        <v>0.6606864274570984</v>
+        <v>0.6424632352941178</v>
       </c>
       <c r="M3">
-        <v>60.68</v>
+        <v>49.8</v>
       </c>
       <c r="N3">
-        <v>0.07159882005899705</v>
+        <v>0.07929936305732484</v>
       </c>
       <c r="O3">
-        <v>0.7164108618654073</v>
+        <v>0.7124463519313303</v>
       </c>
       <c r="P3">
-        <v>59.6</v>
+        <v>49.8</v>
       </c>
       <c r="Q3">
-        <v>0.07032448377581121</v>
+        <v>0.07929936305732484</v>
       </c>
       <c r="R3">
-        <v>0.7036599763872491</v>
+        <v>0.7124463519313303</v>
       </c>
       <c r="S3">
-        <v>1.079999999999998</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.01779828609096899</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>963.4</v>
+        <v>1357.3</v>
       </c>
       <c r="V3">
-        <v>1.136755162241888</v>
+        <v>2.161305732484077</v>
       </c>
       <c r="W3">
-        <v>0.08564206268958545</v>
+        <v>0.06926964621940343</v>
       </c>
       <c r="X3">
-        <v>0.05362410503254372</v>
+        <v>0.04553149513255872</v>
       </c>
       <c r="Y3">
-        <v>0.03201795765704173</v>
+        <v>0.02373815108684471</v>
       </c>
       <c r="Z3">
-        <v>0.04323547936327729</v>
+        <v>0.03969064643221946</v>
       </c>
       <c r="AA3">
-        <v>-0.0001927293013474019</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04028599202144272</v>
+        <v>0.03385338033707589</v>
       </c>
       <c r="AC3">
-        <v>-0.04047872132279012</v>
+        <v>-0.03385338033707589</v>
       </c>
       <c r="AD3">
-        <v>2695.5</v>
+        <v>2110.9</v>
       </c>
       <c r="AE3">
-        <v>13.45736353529631</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2708.957363535296</v>
+        <v>2110.9</v>
       </c>
       <c r="AG3">
-        <v>1745.557363535296</v>
+        <v>753.6000000000001</v>
       </c>
       <c r="AH3">
-        <v>0.7617010655914225</v>
+        <v>0.7707108693271021</v>
       </c>
       <c r="AI3">
-        <v>0.7285948275309818</v>
+        <v>0.672989861633616</v>
       </c>
       <c r="AJ3">
-        <v>0.6731657340412461</v>
+        <v>0.5454545454545455</v>
       </c>
       <c r="AK3">
-        <v>0.6336749487039897</v>
+        <v>0.4235373461473614</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>1271.462264150943</v>
-      </c>
-      <c r="AP3">
-        <v>823.3761148751397</v>
       </c>
     </row>
   </sheetData>
